--- a/core/assets/Data/yorkMapFlipped.xlsx
+++ b/core/assets/Data/yorkMapFlipped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Work\SEPR\Assessment 3\Code\Septagon3\core\assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922B3384-687B-448F-BED2-7226519057C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6EEF2-B2B8-4104-9D1D-D7CC5687792A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1119">
+  <dxfs count="374">
     <dxf>
       <fill>
         <patternFill>
@@ -558,5653 +558,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9364,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BP13" sqref="BP13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10019,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V4">
         <v>7</v>
@@ -10213,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V5">
         <v>7</v>
@@ -13526,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA22">
         <v>7</v>
@@ -13720,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA23">
         <v>5</v>
@@ -13914,13 +8267,13 @@
         <v>4</v>
       </c>
       <c r="Z24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -13992,10 +8345,10 @@
         <v>1</v>
       </c>
       <c r="AZ24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB24">
         <v>4</v>
@@ -15320,10 +9673,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
+        <v>7</v>
+      </c>
+      <c r="AQ31">
         <v>5</v>
-      </c>
-      <c r="AQ31">
-        <v>7</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -15794,7 +10147,7 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -15988,7 +10341,7 @@
         <v>4</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -16361,1348 +10714,1348 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A38:BR38">
-    <cfRule type="cellIs" dxfId="746" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="409" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="410" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="411" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="412" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BL1">
-    <cfRule type="cellIs" dxfId="742" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="367" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="368" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="369" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BL1">
-    <cfRule type="cellIs" dxfId="738" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="365" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="366" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:BL2">
-    <cfRule type="cellIs" dxfId="736" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="361" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="362" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="363" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="364" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:BL2">
-    <cfRule type="cellIs" dxfId="732" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="359" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="360" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:BL3">
-    <cfRule type="cellIs" dxfId="730" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="355" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="356" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="357" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:BL3">
-    <cfRule type="cellIs" dxfId="726" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="353" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="354" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:BL4">
-    <cfRule type="cellIs" dxfId="724" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="349" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="350" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:BL4">
-    <cfRule type="cellIs" dxfId="720" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="347" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="348" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:BL36">
-    <cfRule type="cellIs" dxfId="718" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:BK5">
-    <cfRule type="cellIs" dxfId="716" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="343" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="344" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="345" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL5">
-    <cfRule type="cellIs" dxfId="712" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="339" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="340" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="341" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:BL5">
-    <cfRule type="cellIs" dxfId="708" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="337" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="338" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:BK6">
-    <cfRule type="cellIs" dxfId="706" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="333" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="334" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="336" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL6">
-    <cfRule type="cellIs" dxfId="702" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="329" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="330" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="331" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="332" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:BL6">
-    <cfRule type="cellIs" dxfId="698" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="327" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="328" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:BK7">
-    <cfRule type="cellIs" dxfId="696" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="323" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="325" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL7">
-    <cfRule type="cellIs" dxfId="692" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="319" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="321" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:BL7">
-    <cfRule type="cellIs" dxfId="688" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="317" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="318" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:BF8">
-    <cfRule type="cellIs" dxfId="686" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="313" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="314" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BL8">
-    <cfRule type="cellIs" dxfId="682" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="309" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="310" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="312" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:BL8">
-    <cfRule type="cellIs" dxfId="678" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="307" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="308" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:BF9">
-    <cfRule type="cellIs" dxfId="676" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="303" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="305" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG9:BL9">
-    <cfRule type="cellIs" dxfId="672" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="299" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="301" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:BL9">
-    <cfRule type="cellIs" dxfId="668" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="297" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="298" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:BF10">
-    <cfRule type="cellIs" dxfId="666" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="293" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="294" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="296" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG10:BL10">
-    <cfRule type="cellIs" dxfId="662" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="289" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="290" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="292" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:BL10">
-    <cfRule type="cellIs" dxfId="658" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="287" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="288" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:BD11">
-    <cfRule type="cellIs" dxfId="656" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="283" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="285" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:BL11">
-    <cfRule type="cellIs" dxfId="652" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="279" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="281" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE11:BF11">
-    <cfRule type="cellIs" dxfId="648" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="275" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="276" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="277" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:BL11">
-    <cfRule type="cellIs" dxfId="644" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="273" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="274" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:BD12">
-    <cfRule type="cellIs" dxfId="642" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="269" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="270" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG12:BL12">
-    <cfRule type="cellIs" dxfId="638" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="265" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="266" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE12:BF12">
-    <cfRule type="cellIs" dxfId="634" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="261" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="262" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="264" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:BL12">
-    <cfRule type="cellIs" dxfId="630" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="259" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="260" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:AZ13">
-    <cfRule type="cellIs" dxfId="628" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="255" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="256" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="257" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA13:BL13">
-    <cfRule type="cellIs" dxfId="624" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="251" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="253" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:BL13">
-    <cfRule type="cellIs" dxfId="620" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="250" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:AY14">
-    <cfRule type="cellIs" dxfId="618" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="245" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="246" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="247" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="248" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ14:BL14">
-    <cfRule type="cellIs" dxfId="614" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="241" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="242" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="243" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="244" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:BL14">
-    <cfRule type="cellIs" dxfId="610" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="239" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="240" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:AY15">
-    <cfRule type="cellIs" dxfId="608" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="235" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="236" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="237" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ15:BL15">
-    <cfRule type="cellIs" dxfId="604" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="231" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="232" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="233" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:BL15">
-    <cfRule type="cellIs" dxfId="600" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="229" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="230" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:AY16">
-    <cfRule type="cellIs" dxfId="598" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="225" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="226" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ16:BL16">
-    <cfRule type="cellIs" dxfId="594" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="221" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="222" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:BL16">
-    <cfRule type="cellIs" dxfId="590" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="220" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:AY17">
-    <cfRule type="cellIs" dxfId="588" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="215" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="217" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ17:BL17">
-    <cfRule type="cellIs" dxfId="584" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="211" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="213" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:BL17">
-    <cfRule type="cellIs" dxfId="580" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="209" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="210" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:AY18">
-    <cfRule type="cellIs" dxfId="578" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="205" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="206" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="208" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ18:BL18">
-    <cfRule type="cellIs" dxfId="574" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="201" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="202" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:BL18">
-    <cfRule type="cellIs" dxfId="570" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="199" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="200" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:BH19">
-    <cfRule type="cellIs" dxfId="568" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="195" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="197" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI19:BL19">
-    <cfRule type="cellIs" dxfId="564" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="191" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="193" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:BL19">
-    <cfRule type="cellIs" dxfId="560" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="189" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="190" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:BH20">
-    <cfRule type="cellIs" dxfId="558" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="185" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="186" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="188" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI20:BL20">
-    <cfRule type="cellIs" dxfId="554" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="181" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="182" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="184" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:BL20">
-    <cfRule type="cellIs" dxfId="550" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="179" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="180" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:BH21">
-    <cfRule type="cellIs" dxfId="548" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="175" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="177" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI21:BL21">
-    <cfRule type="cellIs" dxfId="544" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="171" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="173" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:BL21">
-    <cfRule type="cellIs" dxfId="540" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="169" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="170" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:BH22">
-    <cfRule type="cellIs" dxfId="538" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="165" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="166" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI22:BL22">
-    <cfRule type="cellIs" dxfId="534" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="161" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="162" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="164" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:BL22">
-    <cfRule type="cellIs" dxfId="530" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="159" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="160" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:BH23">
-    <cfRule type="cellIs" dxfId="528" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="155" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="157" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI23:BL23">
-    <cfRule type="cellIs" dxfId="524" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="151" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="153" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:BL23">
-    <cfRule type="cellIs" dxfId="520" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="149" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="150" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:BH24">
-    <cfRule type="cellIs" dxfId="518" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="145" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="146" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI24:BL24">
-    <cfRule type="cellIs" dxfId="514" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="141" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:BL24">
-    <cfRule type="cellIs" dxfId="510" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="140" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:BH25">
-    <cfRule type="cellIs" dxfId="508" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="135" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="137" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI25:BL25">
-    <cfRule type="cellIs" dxfId="504" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="131" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="133" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:BL25">
-    <cfRule type="cellIs" dxfId="500" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="129" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:BH26">
-    <cfRule type="cellIs" dxfId="498" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="126" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI26:BL26">
-    <cfRule type="cellIs" dxfId="494" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="122" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="124" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:BL26">
-    <cfRule type="cellIs" dxfId="490" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:BH27">
-    <cfRule type="cellIs" dxfId="488" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI27:BL27">
-    <cfRule type="cellIs" dxfId="484" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="111" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:BL27">
-    <cfRule type="cellIs" dxfId="480" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:BH28">
-    <cfRule type="cellIs" dxfId="478" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI28:BL28">
-    <cfRule type="cellIs" dxfId="474" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:BL28">
-    <cfRule type="cellIs" dxfId="470" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:BH29">
-    <cfRule type="cellIs" dxfId="468" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="97" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI29:BL29">
-    <cfRule type="cellIs" dxfId="464" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:BL29">
-    <cfRule type="cellIs" dxfId="460" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:BH30">
-    <cfRule type="cellIs" dxfId="458" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI30:BL30">
-    <cfRule type="cellIs" dxfId="454" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:BL30">
-    <cfRule type="cellIs" dxfId="450" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:BH31">
-    <cfRule type="cellIs" dxfId="448" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI31:BL31">
-    <cfRule type="cellIs" dxfId="444" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:BL31">
-    <cfRule type="cellIs" dxfId="440" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:BH32">
-    <cfRule type="cellIs" dxfId="438" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI32:BL32">
-    <cfRule type="cellIs" dxfId="434" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:BL32">
-    <cfRule type="cellIs" dxfId="430" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY33:BH33 AO33:AP33 A33:AE33">
-    <cfRule type="cellIs" dxfId="428" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI33:BL33">
-    <cfRule type="cellIs" dxfId="424" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ33:AX33">
-    <cfRule type="cellIs" dxfId="420" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33:AN33">
-    <cfRule type="cellIs" dxfId="416" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:BL33">
-    <cfRule type="cellIs" dxfId="412" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY34:BL34 AO34:AP34 A34:AE34">
-    <cfRule type="cellIs" dxfId="410" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ34:AX34">
-    <cfRule type="cellIs" dxfId="406" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34:AN34">
-    <cfRule type="cellIs" dxfId="402" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:BL34">
-    <cfRule type="cellIs" dxfId="398" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO35:AT35 A35:AE35">
-    <cfRule type="cellIs" dxfId="396" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:BL35">
-    <cfRule type="cellIs" dxfId="392" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF35:AN35">
-    <cfRule type="cellIs" dxfId="388" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:BL35">
-    <cfRule type="cellIs" dxfId="384" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:AT36">
-    <cfRule type="cellIs" dxfId="382" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:BL36">
-    <cfRule type="cellIs" dxfId="378" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CO48">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
